--- a/ponto_funcao/ponto_funcao.xlsx
+++ b/ponto_funcao/ponto_funcao.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28060" windowHeight="12800"/>
+    <workbookView windowWidth="28060" windowHeight="13440"/>
   </bookViews>
   <sheets>
     <sheet name="Projeto" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>Pontos de função</t>
   </si>
@@ -252,34 +252,28 @@
     <t>Consulta Histórico de Usuário</t>
   </si>
   <si>
-    <t>Projeto Submissão</t>
+    <t>Exlusão de eventos</t>
   </si>
   <si>
-    <t>Cadastra Projeto Dados Gerais Submissão</t>
+    <t>Cadastro de secretarias</t>
   </si>
   <si>
-    <t>Cadastra Membro Equipe Submissão</t>
+    <t>Cadastro da equipe de campo</t>
   </si>
   <si>
-    <t>Deleta membro Submissão</t>
+    <t>Cadastro dos relatórios</t>
   </si>
   <si>
-    <t>Lista Membros Cadastrados Submissão</t>
+    <t>cadastro dos eventos da secretaria</t>
   </si>
   <si>
-    <t>Cadastra Insttuição de Financiamento Submissão</t>
+    <t>cadastro dos espaços publicos</t>
   </si>
   <si>
-    <t>Deleta Instituição de Financiamento Submissão</t>
+    <t>cadastro da central de atendimento</t>
   </si>
   <si>
-    <t>Lista Instituição de Financiamento Submissão</t>
-  </si>
-  <si>
-    <t>Tarefas</t>
-  </si>
-  <si>
-    <t>Cadastra Tarefa na Submissão</t>
+    <t>estatus dos serviços</t>
   </si>
 </sst>
 </file>
@@ -1945,8 +1939,8 @@
   </sheetPr>
   <dimension ref="B1:BW68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D22" sqref="C8:I68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="19.2"/>
@@ -3219,7 +3213,9 @@
       <c r="BV22" s="40"/>
     </row>
     <row r="23" ht="18.95" customHeight="1" spans="2:74">
-      <c r="B23" s="12"/>
+      <c r="B23" s="12" t="s">
+        <v>24</v>
+      </c>
       <c r="C23" s="11">
         <v>10</v>
       </c>
@@ -3265,7 +3261,7 @@
     </row>
     <row r="24" ht="18.95" customHeight="1" spans="2:74">
       <c r="B24" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="11">
         <v>11</v>
@@ -3312,7 +3308,7 @@
     </row>
     <row r="25" ht="45" customHeight="1" spans="2:74">
       <c r="B25" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="11">
         <v>12</v>
@@ -3359,7 +3355,7 @@
     </row>
     <row r="26" ht="38.1" customHeight="1" spans="2:74">
       <c r="B26" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="11">
         <v>12</v>
@@ -3406,7 +3402,7 @@
     </row>
     <row r="27" ht="41.1" customHeight="1" spans="2:74">
       <c r="B27" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="11">
         <v>14</v>
@@ -3453,7 +3449,7 @@
     </row>
     <row r="28" ht="41.1" customHeight="1" spans="2:74">
       <c r="B28" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="11">
         <v>14</v>
@@ -3500,7 +3496,7 @@
     </row>
     <row r="29" ht="57" customHeight="1" spans="2:74">
       <c r="B29" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="11">
         <v>14</v>
@@ -3547,7 +3543,7 @@
     </row>
     <row r="30" ht="53.1" customHeight="1" spans="2:74">
       <c r="B30" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C30" s="11">
         <v>15</v>
@@ -3593,27 +3589,13 @@
       <c r="BV30" s="40"/>
     </row>
     <row r="31" ht="51" customHeight="1" spans="2:74">
-      <c r="B31" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="11">
-        <v>15</v>
-      </c>
-      <c r="D31" s="11">
-        <v>5</v>
-      </c>
-      <c r="E31" s="11">
-        <v>15</v>
-      </c>
-      <c r="F31" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="G31" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0.05</v>
-      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
       <c r="I31" s="24"/>
       <c r="J31" s="21"/>
       <c r="K31"/>
@@ -3640,27 +3622,13 @@
       <c r="BV31" s="40"/>
     </row>
     <row r="32" ht="18.95" customHeight="1" spans="2:74">
-      <c r="B32" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32" s="11">
-        <v>15</v>
-      </c>
-      <c r="D32" s="11">
-        <v>8</v>
-      </c>
-      <c r="E32" s="11">
-        <v>15</v>
-      </c>
-      <c r="F32" s="15">
-        <v>0</v>
-      </c>
-      <c r="G32" s="15">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
       <c r="I32" s="24"/>
       <c r="J32" s="21"/>
       <c r="K32"/>
@@ -3687,27 +3655,13 @@
       <c r="BV32" s="40"/>
     </row>
     <row r="33" spans="2:74">
-      <c r="B33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="11">
-        <v>16</v>
-      </c>
-      <c r="D33" s="11">
-        <v>28</v>
-      </c>
-      <c r="E33" s="11">
-        <v>16</v>
-      </c>
-      <c r="F33" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="G33" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
       <c r="I33" s="24"/>
       <c r="J33" s="21"/>
       <c r="K33"/>
